--- a/biology/Zoologie/Dicée_à_bec_épais/Dicée_à_bec_épais.xlsx
+++ b/biology/Zoologie/Dicée_à_bec_épais/Dicée_à_bec_épais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_bec_%C3%A9pais</t>
+          <t>Dicée_à_bec_épais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicaeum agile
 Le Dicée à bec épais (Dicaeum agile) est une espèce de passereau placée dans la famille des Dicaeidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_bec_%C3%A9pais</t>
+          <t>Dicée_à_bec_épais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un très petit oiseau robuste, de 10 cm de longueur, avec une queue courte, un bec court, épais et recourbé. Cette espèce n'a pas le plumage de couleur vive typiquement montré par les autres Dicées mâles. Il a le dos vert olive et le ventre gris blanc, rayé sur la poitrine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_bec_%C3%A9pais</t>
+          <t>Dicée_à_bec_épais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa langue tubulaire reflète l'importance du nectar dans son régime alimentaire mais il se nourrit aussi de baies, d'araignées et d'insectes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_bec_%C3%A9pais</t>
+          <t>Dicée_à_bec_épais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond deux à quatre œufs dans un nid suspendu à une branche d'arbre.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_bec_%C3%A9pais</t>
+          <t>Dicée_à_bec_épais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un oiseau résidant dans les régions tropicales du l'Asie du Sud depuis l'est de l'Inde à l'Indonésie et au Timor.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_bec_%C3%A9pais</t>
+          <t>Dicée_à_bec_épais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est commun dans les forêts, les autres lieux boisés et les cultures.
 </t>
